--- a/spec/models/ASW/Eng/ETS/CoETS/CoETS_TSEACo/CoETS_TSEACoInspectReport.xlsx
+++ b/spec/models/ASW/Eng/ETS/CoETS/CoETS_TSEACo/CoETS_TSEACoInspectReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T3NSE\trunk\spec\model\swCore\ASW\Eng\ETS\CoETS\CoETS_TSEACo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711CE36-C5A9-404D-99BD-0DE6D8AB085D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7047A-FA12-4870-8625-B4EBF10B703E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
